--- a/IdlePowerBalancing.xlsx
+++ b/IdlePowerBalancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\PycharmProjects\IdlePowerBalancing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01959AC9-A81A-4512-846A-EA7C9ED55DF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B239E6-F067-4DD8-8C1F-6C786995F308}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-4147" windowWidth="28995" windowHeight="15795" tabRatio="743" activeTab="2" xr2:uid="{28C085D8-E2A0-418F-8928-7A7EE2BAEA8D}"/>
+    <workbookView xWindow="14303" yWindow="-4147" windowWidth="28995" windowHeight="15795" tabRatio="743" firstSheet="3" activeTab="7" xr2:uid="{28C085D8-E2A0-418F-8928-7A7EE2BAEA8D}"/>
   </bookViews>
   <sheets>
     <sheet name="prod_base_values" sheetId="1" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4855,7 +4855,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5252,8 +5252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFB339A-9F26-40E8-8660-93FF6C44D829}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7411,7 +7411,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8267,7 +8267,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9436,14 +9436,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E531F0-085D-46CD-AA09-287683333E46}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="14"/>
-    <col min="4" max="4" width="7.7109375" style="14" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="14"/>
+    <col min="3" max="3" width="14.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="14" customWidth="1"/>
     <col min="5" max="6" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
@@ -9497,7 +9498,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="18">
         <v>0.1</v>

--- a/IdlePowerBalancing.xlsx
+++ b/IdlePowerBalancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\PycharmProjects\IdlePowerBalancing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B239E6-F067-4DD8-8C1F-6C786995F308}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C1C90-F678-40C4-9AE2-C7692C70DF3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-4147" windowWidth="28995" windowHeight="15795" tabRatio="743" firstSheet="3" activeTab="7" xr2:uid="{28C085D8-E2A0-418F-8928-7A7EE2BAEA8D}"/>
+    <workbookView xWindow="14303" yWindow="-4147" windowWidth="28995" windowHeight="15795" tabRatio="743" firstSheet="3" activeTab="4" xr2:uid="{28C085D8-E2A0-418F-8928-7A7EE2BAEA8D}"/>
   </bookViews>
   <sheets>
     <sheet name="prod_base_values" sheetId="1" r:id="rId1"/>
@@ -7994,8 +7994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B607FD-0A38-4A6B-A96A-ADA1BC478DD3}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8051,7 +8051,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="23">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -8068,7 +8068,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -8087,7 +8087,7 @@
         <v>150</v>
       </c>
       <c r="D6" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -8106,7 +8106,7 @@
         <v>2250</v>
       </c>
       <c r="D7" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -8144,7 +8144,7 @@
         <v>506250</v>
       </c>
       <c r="D9" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -8163,7 +8163,7 @@
         <v>7593750</v>
       </c>
       <c r="D10" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -8182,7 +8182,7 @@
         <v>113906250</v>
       </c>
       <c r="D11" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -8201,7 +8201,7 @@
         <v>1708593750</v>
       </c>
       <c r="D12" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -8220,7 +8220,7 @@
         <v>25628906250</v>
       </c>
       <c r="D13" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -8239,7 +8239,7 @@
         <v>384433593750</v>
       </c>
       <c r="D14" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -8776,7 +8776,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9436,8 +9436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E531F0-085D-46CD-AA09-287683333E46}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9498,7 +9498,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="18">
         <v>0.1</v>

--- a/IdlePowerBalancing.xlsx
+++ b/IdlePowerBalancing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\PycharmProjects\IdlePowerBalancing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\IdlePowerBalancing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03181C8B-28DE-45A6-9CA9-698FC30A4E01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCACF3F7-84D5-4B42-AD46-2A9EC1722339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-4147" windowWidth="28995" windowHeight="15795" tabRatio="743" firstSheet="1" activeTab="4" xr2:uid="{28C085D8-E2A0-418F-8928-7A7EE2BAEA8D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="743" firstSheet="6" activeTab="11" xr2:uid="{28C085D8-E2A0-418F-8928-7A7EE2BAEA8D}"/>
   </bookViews>
   <sheets>
     <sheet name="prestige_values" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -355,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,6 +432,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,7 +469,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,13 +790,13 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>52</v>
       </c>
@@ -811,8 +816,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="27">
         <v>1000000000000000</v>
       </c>
       <c r="B2">
@@ -842,49 +847,49 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="2" customWidth="1"/>
-    <col min="2" max="11" width="4.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="2" customWidth="1"/>
+    <col min="2" max="11" width="4.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="4">
         <v>0</v>
       </c>
@@ -916,808 +921,808 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>25</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26">
+        <v>3</v>
+      </c>
+      <c r="D4" s="26">
+        <v>2</v>
+      </c>
+      <c r="E4" s="26">
+        <v>2</v>
+      </c>
+      <c r="F4" s="26">
+        <v>2</v>
+      </c>
+      <c r="G4" s="26">
+        <v>2</v>
+      </c>
+      <c r="H4" s="26">
+        <v>2</v>
+      </c>
+      <c r="I4" s="26">
+        <v>2</v>
+      </c>
+      <c r="J4" s="26">
+        <v>2</v>
+      </c>
+      <c r="K4" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>50</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26">
+        <v>3</v>
+      </c>
+      <c r="D5" s="26">
+        <v>2</v>
+      </c>
+      <c r="E5" s="26">
+        <v>3</v>
+      </c>
+      <c r="F5" s="26">
+        <v>2</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2</v>
+      </c>
+      <c r="H5" s="26">
+        <v>2</v>
+      </c>
+      <c r="I5" s="26">
+        <v>2</v>
+      </c>
+      <c r="J5" s="26">
+        <v>2</v>
+      </c>
+      <c r="K5" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>100</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="26">
+        <v>3</v>
+      </c>
+      <c r="D6" s="26">
+        <v>2</v>
+      </c>
+      <c r="E6" s="26">
+        <v>2</v>
+      </c>
+      <c r="F6" s="26">
+        <v>2</v>
+      </c>
+      <c r="G6" s="26">
+        <v>2</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2</v>
+      </c>
+      <c r="I6" s="26">
+        <v>2</v>
+      </c>
+      <c r="J6" s="26">
+        <v>2</v>
+      </c>
+      <c r="K6" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>200</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="26">
+        <v>2</v>
+      </c>
+      <c r="C7" s="26">
+        <v>4</v>
+      </c>
+      <c r="D7" s="26">
+        <v>2</v>
+      </c>
+      <c r="E7" s="26">
+        <v>2</v>
+      </c>
+      <c r="F7" s="26">
+        <v>2</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2</v>
+      </c>
+      <c r="H7" s="26">
+        <v>2</v>
+      </c>
+      <c r="I7" s="26">
+        <v>2</v>
+      </c>
+      <c r="J7" s="26">
+        <v>2</v>
+      </c>
+      <c r="K7" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>250</v>
       </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="26">
+        <v>2</v>
+      </c>
+      <c r="C8" s="26">
+        <v>5</v>
+      </c>
+      <c r="D8" s="26">
+        <v>2</v>
+      </c>
+      <c r="E8" s="26">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26">
+        <v>2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>2</v>
+      </c>
+      <c r="H8" s="26">
+        <v>2</v>
+      </c>
+      <c r="I8" s="26">
+        <v>2</v>
+      </c>
+      <c r="J8" s="26">
+        <v>2</v>
+      </c>
+      <c r="K8" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>300</v>
       </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-      <c r="K9" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="26">
+        <v>2</v>
+      </c>
+      <c r="C9" s="26">
+        <v>2</v>
+      </c>
+      <c r="D9" s="26">
+        <v>2</v>
+      </c>
+      <c r="E9" s="26">
+        <v>2</v>
+      </c>
+      <c r="F9" s="26">
+        <v>2</v>
+      </c>
+      <c r="G9" s="26">
+        <v>2</v>
+      </c>
+      <c r="H9" s="26">
+        <v>2</v>
+      </c>
+      <c r="I9" s="26">
+        <v>2</v>
+      </c>
+      <c r="J9" s="26">
+        <v>2</v>
+      </c>
+      <c r="K9" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>400</v>
       </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <v>2</v>
+      </c>
+      <c r="C10" s="26">
+        <v>2</v>
+      </c>
+      <c r="D10" s="26">
+        <v>2</v>
+      </c>
+      <c r="E10" s="26">
+        <v>2</v>
+      </c>
+      <c r="F10" s="26">
+        <v>2</v>
+      </c>
+      <c r="G10" s="26">
+        <v>2</v>
+      </c>
+      <c r="H10" s="26">
+        <v>2</v>
+      </c>
+      <c r="I10" s="26">
+        <v>2</v>
+      </c>
+      <c r="J10" s="26">
+        <v>2</v>
+      </c>
+      <c r="K10" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>500</v>
       </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2">
-        <v>4</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2">
-        <v>4</v>
-      </c>
-      <c r="K11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="26">
+        <v>2</v>
+      </c>
+      <c r="C11" s="26">
+        <v>2</v>
+      </c>
+      <c r="D11" s="26">
+        <v>2</v>
+      </c>
+      <c r="E11" s="26">
+        <v>2</v>
+      </c>
+      <c r="F11" s="26">
+        <v>2</v>
+      </c>
+      <c r="G11" s="26">
+        <v>2</v>
+      </c>
+      <c r="H11" s="26">
+        <v>2</v>
+      </c>
+      <c r="I11" s="26">
+        <v>2</v>
+      </c>
+      <c r="J11" s="26">
+        <v>2</v>
+      </c>
+      <c r="K11" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>600</v>
       </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>3</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="26">
+        <v>2</v>
+      </c>
+      <c r="C12" s="26">
+        <v>2</v>
+      </c>
+      <c r="D12" s="26">
+        <v>2</v>
+      </c>
+      <c r="E12" s="26">
+        <v>2</v>
+      </c>
+      <c r="F12" s="26">
+        <v>2</v>
+      </c>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="26">
+        <v>2</v>
+      </c>
+      <c r="I12" s="26">
+        <v>2</v>
+      </c>
+      <c r="J12" s="26">
+        <v>2</v>
+      </c>
+      <c r="K12" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>700</v>
       </c>
-      <c r="B13" s="13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="13">
-        <v>5</v>
-      </c>
-      <c r="G13" s="13">
-        <v>5</v>
-      </c>
-      <c r="H13" s="13">
-        <v>5</v>
-      </c>
-      <c r="I13" s="13">
-        <v>5</v>
-      </c>
-      <c r="J13" s="13">
-        <v>5</v>
-      </c>
-      <c r="K13" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="26">
+        <v>2</v>
+      </c>
+      <c r="C13" s="26">
+        <v>2</v>
+      </c>
+      <c r="D13" s="26">
+        <v>2</v>
+      </c>
+      <c r="E13" s="26">
+        <v>2</v>
+      </c>
+      <c r="F13" s="26">
+        <v>2</v>
+      </c>
+      <c r="G13" s="26">
+        <v>2</v>
+      </c>
+      <c r="H13" s="26">
+        <v>2</v>
+      </c>
+      <c r="I13" s="26">
+        <v>2</v>
+      </c>
+      <c r="J13" s="26">
+        <v>2</v>
+      </c>
+      <c r="K13" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>800</v>
       </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="26">
+        <v>2</v>
+      </c>
+      <c r="C14" s="26">
+        <v>2</v>
+      </c>
+      <c r="D14" s="26">
+        <v>2</v>
+      </c>
+      <c r="E14" s="26">
+        <v>2</v>
+      </c>
+      <c r="F14" s="26">
+        <v>2</v>
+      </c>
+      <c r="G14" s="26">
+        <v>2</v>
+      </c>
+      <c r="H14" s="26">
+        <v>2</v>
+      </c>
+      <c r="I14" s="26">
+        <v>2</v>
+      </c>
+      <c r="J14" s="26">
+        <v>2</v>
+      </c>
+      <c r="K14" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>900</v>
       </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="26">
+        <v>2</v>
+      </c>
+      <c r="C15" s="26">
+        <v>2</v>
+      </c>
+      <c r="D15" s="26">
+        <v>2</v>
+      </c>
+      <c r="E15" s="26">
+        <v>2</v>
+      </c>
+      <c r="F15" s="26">
+        <v>2</v>
+      </c>
+      <c r="G15" s="26">
+        <v>2</v>
+      </c>
+      <c r="H15" s="26">
+        <v>2</v>
+      </c>
+      <c r="I15" s="26">
+        <v>2</v>
+      </c>
+      <c r="J15" s="26">
+        <v>2</v>
+      </c>
+      <c r="K15" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1000</v>
       </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>2</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
+        <v>2</v>
+      </c>
+      <c r="C16" s="26">
+        <v>2</v>
+      </c>
+      <c r="D16" s="26">
+        <v>2</v>
+      </c>
+      <c r="E16" s="26">
+        <v>2</v>
+      </c>
+      <c r="F16" s="26">
+        <v>2</v>
+      </c>
+      <c r="G16" s="26">
+        <v>2</v>
+      </c>
+      <c r="H16" s="26">
+        <v>2</v>
+      </c>
+      <c r="I16" s="26">
+        <v>2</v>
+      </c>
+      <c r="J16" s="26">
+        <v>2</v>
+      </c>
+      <c r="K16" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1100</v>
       </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2">
-        <v>4</v>
-      </c>
-      <c r="H17" s="2">
-        <v>4</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2">
-        <v>4</v>
-      </c>
-      <c r="K17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="26">
+        <v>2</v>
+      </c>
+      <c r="C17" s="26">
+        <v>2</v>
+      </c>
+      <c r="D17" s="26">
+        <v>2</v>
+      </c>
+      <c r="E17" s="26">
+        <v>2</v>
+      </c>
+      <c r="F17" s="26">
+        <v>2</v>
+      </c>
+      <c r="G17" s="26">
+        <v>2</v>
+      </c>
+      <c r="H17" s="26">
+        <v>2</v>
+      </c>
+      <c r="I17" s="26">
+        <v>2</v>
+      </c>
+      <c r="J17" s="26">
+        <v>2</v>
+      </c>
+      <c r="K17" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1200</v>
       </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2">
-        <v>5</v>
-      </c>
-      <c r="K18" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
+        <v>2</v>
+      </c>
+      <c r="C18" s="26">
+        <v>2</v>
+      </c>
+      <c r="D18" s="26">
+        <v>2</v>
+      </c>
+      <c r="E18" s="26">
+        <v>2</v>
+      </c>
+      <c r="F18" s="26">
+        <v>2</v>
+      </c>
+      <c r="G18" s="26">
+        <v>2</v>
+      </c>
+      <c r="H18" s="26">
+        <v>2</v>
+      </c>
+      <c r="I18" s="26">
+        <v>2</v>
+      </c>
+      <c r="J18" s="26">
+        <v>2</v>
+      </c>
+      <c r="K18" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1300</v>
       </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>2</v>
-      </c>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
+        <v>2</v>
+      </c>
+      <c r="C19" s="26">
+        <v>2</v>
+      </c>
+      <c r="D19" s="26">
+        <v>2</v>
+      </c>
+      <c r="E19" s="26">
+        <v>2</v>
+      </c>
+      <c r="F19" s="26">
+        <v>2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>2</v>
+      </c>
+      <c r="H19" s="26">
+        <v>2</v>
+      </c>
+      <c r="I19" s="26">
+        <v>2</v>
+      </c>
+      <c r="J19" s="26">
+        <v>2</v>
+      </c>
+      <c r="K19" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1400</v>
       </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2</v>
-      </c>
-      <c r="I20" s="2">
-        <v>2</v>
-      </c>
-      <c r="J20" s="2">
-        <v>2</v>
-      </c>
-      <c r="K20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="26">
+        <v>2</v>
+      </c>
+      <c r="C20" s="26">
+        <v>2</v>
+      </c>
+      <c r="D20" s="26">
+        <v>2</v>
+      </c>
+      <c r="E20" s="26">
+        <v>2</v>
+      </c>
+      <c r="F20" s="26">
+        <v>2</v>
+      </c>
+      <c r="G20" s="26">
+        <v>2</v>
+      </c>
+      <c r="H20" s="26">
+        <v>2</v>
+      </c>
+      <c r="I20" s="26">
+        <v>2</v>
+      </c>
+      <c r="J20" s="26">
+        <v>2</v>
+      </c>
+      <c r="K20" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1500</v>
       </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>2</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2</v>
-      </c>
-      <c r="K21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>2</v>
+      </c>
+      <c r="C21" s="26">
+        <v>2</v>
+      </c>
+      <c r="D21" s="26">
+        <v>2</v>
+      </c>
+      <c r="E21" s="26">
+        <v>2</v>
+      </c>
+      <c r="F21" s="26">
+        <v>2</v>
+      </c>
+      <c r="G21" s="26">
+        <v>2</v>
+      </c>
+      <c r="H21" s="26">
+        <v>2</v>
+      </c>
+      <c r="I21" s="26">
+        <v>2</v>
+      </c>
+      <c r="J21" s="26">
+        <v>2</v>
+      </c>
+      <c r="K21" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1600</v>
       </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2</v>
-      </c>
-      <c r="K22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>2</v>
+      </c>
+      <c r="C22" s="26">
+        <v>2</v>
+      </c>
+      <c r="D22" s="26">
+        <v>2</v>
+      </c>
+      <c r="E22" s="26">
+        <v>2</v>
+      </c>
+      <c r="F22" s="26">
+        <v>2</v>
+      </c>
+      <c r="G22" s="26">
+        <v>2</v>
+      </c>
+      <c r="H22" s="26">
+        <v>2</v>
+      </c>
+      <c r="I22" s="26">
+        <v>2</v>
+      </c>
+      <c r="J22" s="26">
+        <v>2</v>
+      </c>
+      <c r="K22" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1700</v>
       </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>2</v>
+      </c>
+      <c r="C23" s="26">
+        <v>2</v>
+      </c>
+      <c r="D23" s="26">
+        <v>2</v>
+      </c>
+      <c r="E23" s="26">
+        <v>2</v>
+      </c>
+      <c r="F23" s="26">
+        <v>2</v>
+      </c>
+      <c r="G23" s="26">
+        <v>2</v>
+      </c>
+      <c r="H23" s="26">
+        <v>2</v>
+      </c>
+      <c r="I23" s="26">
+        <v>2</v>
+      </c>
+      <c r="J23" s="26">
+        <v>2</v>
+      </c>
+      <c r="K23" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1800</v>
       </c>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2</v>
-      </c>
-      <c r="I24" s="2">
-        <v>2</v>
-      </c>
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>2</v>
+      </c>
+      <c r="C24" s="26">
+        <v>2</v>
+      </c>
+      <c r="D24" s="26">
+        <v>2</v>
+      </c>
+      <c r="E24" s="26">
+        <v>2</v>
+      </c>
+      <c r="F24" s="26">
+        <v>2</v>
+      </c>
+      <c r="G24" s="26">
+        <v>2</v>
+      </c>
+      <c r="H24" s="26">
+        <v>2</v>
+      </c>
+      <c r="I24" s="26">
+        <v>2</v>
+      </c>
+      <c r="J24" s="26">
+        <v>2</v>
+      </c>
+      <c r="K24" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1900</v>
       </c>
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2">
-        <v>2</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2</v>
-      </c>
-      <c r="K25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>2</v>
+      </c>
+      <c r="C25" s="26">
+        <v>2</v>
+      </c>
+      <c r="D25" s="26">
+        <v>2</v>
+      </c>
+      <c r="E25" s="26">
+        <v>2</v>
+      </c>
+      <c r="F25" s="26">
+        <v>2</v>
+      </c>
+      <c r="G25" s="26">
+        <v>2</v>
+      </c>
+      <c r="H25" s="26">
+        <v>2</v>
+      </c>
+      <c r="I25" s="26">
+        <v>2</v>
+      </c>
+      <c r="J25" s="26">
+        <v>2</v>
+      </c>
+      <c r="K25" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2000</v>
       </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2</v>
-      </c>
-      <c r="J26" s="2">
-        <v>2</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="B26" s="26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="26">
+        <v>2</v>
+      </c>
+      <c r="H26" s="26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="26">
+        <v>2</v>
+      </c>
+      <c r="J26" s="26">
+        <v>2</v>
+      </c>
+      <c r="K26" s="26">
         <v>2</v>
       </c>
     </row>
@@ -1735,27 +1740,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7E3060-4770-4F06-8F0D-F0EF7FFFD498}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="36"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>25</v>
       </c>
@@ -1771,15 +1776,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>50</v>
       </c>
       <c r="B5" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -1787,15 +1792,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>200</v>
       </c>
-      <c r="B7" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>250</v>
       </c>
@@ -1803,31 +1808,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>300</v>
       </c>
       <c r="B9" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>400</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>500</v>
       </c>
       <c r="B11" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>600</v>
       </c>
@@ -1835,15 +1840,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>700</v>
       </c>
-      <c r="B13" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>800</v>
       </c>
@@ -1851,31 +1856,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>900</v>
       </c>
       <c r="B15" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1000</v>
       </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1100</v>
       </c>
       <c r="B17" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1200</v>
       </c>
@@ -1883,15 +1888,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1300</v>
       </c>
-      <c r="B19" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1400</v>
       </c>
@@ -1899,31 +1904,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1500</v>
       </c>
       <c r="B21" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1600</v>
       </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1700</v>
       </c>
       <c r="B23" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1800</v>
       </c>
@@ -1931,15 +1936,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1900</v>
       </c>
-      <c r="B25" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2000</v>
       </c>
@@ -1959,69 +1964,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912428DE-AF38-496C-A102-F378A5BCEEEA}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="6.7109375" style="2" customWidth="1"/>
-    <col min="12" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="21" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
+    <col min="2" max="11" width="6.6640625" style="2" customWidth="1"/>
+    <col min="12" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="21" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-    </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+    </row>
+    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -2086,7 +2091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1.9</v>
       </c>
@@ -2160,7 +2165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f>K4*$A$4</f>
         <v>61310662.578009978</v>
@@ -2202,37 +2207,37 @@
         <v>19784196556.603123</v>
       </c>
       <c r="L5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <f t="shared" ref="B6:B28" si="1">K5*$A$4</f>
         <v>37589973457.545929</v>
@@ -2304,7 +2309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <f t="shared" si="1"/>
         <v>23046661789719.492</v>
@@ -2376,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <f t="shared" si="1"/>
         <v>1.413006104539007E+16</v>
@@ -2448,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" si="1"/>
         <v>8.6632340496059361E+18</v>
@@ -2520,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <f t="shared" si="1"/>
         <v>5.3114861964971653E+21</v>
@@ -2592,7 +2597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f t="shared" si="1"/>
         <v>3.2565073798119519E+24</v>
@@ -2664,7 +2669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <f t="shared" si="1"/>
         <v>1.9965862514644993E+27</v>
@@ -2736,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="2">
         <f t="shared" si="1"/>
@@ -2809,7 +2814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <f t="shared" si="1"/>
         <v>7.505162419825165E+32</v>
@@ -2881,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <f t="shared" si="1"/>
         <v>4.6014648071506136E+35</v>
@@ -2953,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <f t="shared" si="1"/>
         <v>2.8211885615579907E+38</v>
@@ -3025,7 +3030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <f t="shared" si="1"/>
         <v>1.7296893996662328E+41</v>
@@ -3097,7 +3102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <f t="shared" si="1"/>
         <v>1.0604840314769703E+44</v>
@@ -3169,7 +3174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f t="shared" si="1"/>
         <v>6.5018978623252238E+46</v>
@@ -3241,7 +3246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <f t="shared" si="1"/>
         <v>3.9863566595370619E+49</v>
@@ -3313,7 +3318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <f t="shared" si="1"/>
         <v>2.4440616806847986E+52</v>
@@ -3385,7 +3390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" si="1"/>
         <v>1.4984704102430962E+55</v>
@@ -3457,7 +3462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <f t="shared" si="1"/>
         <v>9.1872213705546645E+57</v>
@@ -3529,7 +3534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <f t="shared" si="1"/>
         <v>5.6327462947955938E+60</v>
@@ -3601,7 +3606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <f t="shared" si="1"/>
         <v>3.4534740746774855E+63</v>
@@ -3673,7 +3678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <f t="shared" si="1"/>
         <v>2.1173478371445647E+66</v>
@@ -3745,7 +3750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <f t="shared" si="1"/>
         <v>1.2981599880344959E+69</v>
@@ -3817,7 +3822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <f t="shared" si="1"/>
         <v>7.9591048998656427E+71</v>
@@ -3889,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <f>K28*$A$4</f>
         <v>4.8797799493864826E+74</v>
@@ -3961,7 +3966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <f t="shared" ref="B30:B50" si="26">K29*$A$4</f>
         <v>2.9918254193177323E+77</v>
@@ -4033,7 +4038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <f t="shared" si="26"/>
         <v>1.8343079877610265E+80</v>
@@ -4105,7 +4110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <f t="shared" si="26"/>
         <v>1.1246263810176471E+83</v>
@@ -4177,7 +4182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <f t="shared" si="26"/>
         <v>6.8951588572901431E+85</v>
@@ -4249,7 +4254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <f t="shared" si="26"/>
         <v>4.2274675812109271E+88</v>
@@ -4321,7 +4326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <f t="shared" si="26"/>
         <v>2.5918883843109916E+91</v>
@@ -4393,7 +4398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <f t="shared" si="26"/>
         <v>1.5891039417035463E+94</v>
@@ -4465,7 +4470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <f t="shared" si="26"/>
         <v>9.7429015571171746E+96</v>
@@ -4537,7 +4542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <f t="shared" si="26"/>
         <v>5.973437498991791E+99</v>
@@ -4609,7 +4614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <f t="shared" si="26"/>
         <v>3.6623541093151748E+102</v>
@@ -4681,7 +4686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <f t="shared" si="26"/>
         <v>2.2454135703741089E+105</v>
@@ -4753,7 +4758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <f t="shared" si="26"/>
         <v>1.3766779376129164E+108</v>
@@ -4825,7 +4830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <f t="shared" si="26"/>
         <v>8.4405036511576167E+110</v>
@@ -4897,7 +4902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <f t="shared" si="26"/>
         <v>5.1749287134458576E+113</v>
@@ -4969,7 +4974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <f t="shared" si="26"/>
         <v>3.1727830821533424E+116</v>
@@ -5041,7 +5046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <f t="shared" si="26"/>
         <v>1.9452543298312205E+119</v>
@@ -5113,7 +5118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <f t="shared" si="26"/>
         <v>1.1926483184469488E+122</v>
@@ -5185,7 +5190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <f t="shared" si="26"/>
         <v>7.3122058626531866E+124</v>
@@ -5257,7 +5262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <f t="shared" si="26"/>
         <v>4.4831618634607592E+127</v>
@@ -5329,7 +5334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <f t="shared" si="26"/>
         <v>2.7486562429324499E+130</v>
@@ -5401,7 +5406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <f t="shared" si="26"/>
         <v>1.6852193545337206E+133</v>
@@ -5488,85 +5493,85 @@
   <dimension ref="A1:AN25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
     <col min="12" max="12" width="13" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="16" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="8" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="2"/>
+    <col min="18" max="18" width="9.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.5546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" style="2"/>
     <col min="25" max="25" width="8" style="2" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="2"/>
-    <col min="27" max="27" width="8.28515625" style="2" customWidth="1"/>
-    <col min="28" max="32" width="9.140625" style="2"/>
+    <col min="26" max="26" width="9.109375" style="2"/>
+    <col min="27" max="27" width="8.33203125" style="2" customWidth="1"/>
+    <col min="28" max="32" width="9.109375" style="2"/>
     <col min="33" max="33" width="8" style="2" customWidth="1"/>
-    <col min="34" max="35" width="9.140625" style="2"/>
-    <col min="36" max="36" width="11.5703125" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="2"/>
+    <col min="34" max="35" width="9.109375" style="2"/>
+    <col min="36" max="36" width="11.5546875" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:40" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="1"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-    </row>
-    <row r="2" spans="1:40" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+    </row>
+    <row r="2" spans="1:40" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5604,7 +5609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -5615,7 +5620,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E3" s="2">
         <v>0.1</v>
@@ -5643,12 +5648,12 @@
       </c>
       <c r="AM3" s="8"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
@@ -5665,7 +5670,7 @@
       <c r="L4" s="7"/>
       <c r="AM4" s="8"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5676,12 +5681,12 @@
         <v>800</v>
       </c>
       <c r="D5" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="L5" s="7"/>
       <c r="AM5" s="8"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5692,12 +5697,12 @@
         <v>5000</v>
       </c>
       <c r="D6" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="L6" s="7"/>
       <c r="AM6" s="8"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5713,7 +5718,7 @@
       <c r="L7" s="7"/>
       <c r="AM7" s="8"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5724,17 +5729,17 @@
         <v>1400000</v>
       </c>
       <c r="D8" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L8" s="7"/>
       <c r="AM8" s="8"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="L9" s="7"/>
       <c r="AM9" s="8"/>
     </row>
-    <row r="10" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5749,7 +5754,7 @@
       <c r="L10" s="11"/>
       <c r="AM10" s="8"/>
     </row>
-    <row r="11" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -5758,7 +5763,7 @@
       <c r="L11" s="12"/>
       <c r="AM11" s="8"/>
     </row>
-    <row r="12" spans="1:40" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -5773,43 +5778,43 @@
       <c r="AH12" s="2"/>
       <c r="AM12" s="8"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AM13" s="8"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AM14" s="8"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AM15" s="8"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AM16" s="8"/>
     </row>
-    <row r="17" spans="39:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="39:39" x14ac:dyDescent="0.3">
       <c r="AM17" s="8"/>
     </row>
-    <row r="18" spans="39:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="39:39" x14ac:dyDescent="0.3">
       <c r="AM18" s="8"/>
     </row>
-    <row r="19" spans="39:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="39:39" x14ac:dyDescent="0.3">
       <c r="AM19" s="8"/>
     </row>
-    <row r="20" spans="39:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="39:39" x14ac:dyDescent="0.3">
       <c r="AM20" s="8"/>
     </row>
-    <row r="21" spans="39:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="39:39" x14ac:dyDescent="0.3">
       <c r="AM21" s="8"/>
     </row>
-    <row r="22" spans="39:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="39:39" x14ac:dyDescent="0.3">
       <c r="AM22" s="8"/>
     </row>
-    <row r="23" spans="39:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="39:39" x14ac:dyDescent="0.3">
       <c r="AM23" s="8"/>
     </row>
-    <row r="24" spans="39:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="39:39" x14ac:dyDescent="0.3">
       <c r="AM24" s="8"/>
     </row>
-    <row r="25" spans="39:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="39:39" x14ac:dyDescent="0.3">
       <c r="AM25" s="8"/>
     </row>
   </sheetData>
@@ -5829,26 +5834,26 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
-    <col min="2" max="5" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="11.5546875" style="2" customWidth="1"/>
+    <col min="2" max="5" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="D1" s="28" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -5865,12 +5870,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>1453</v>
@@ -5882,7 +5887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>50</v>
       </c>
@@ -5897,7 +5902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -5912,7 +5917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>200</v>
       </c>
@@ -5927,7 +5932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>250</v>
       </c>
@@ -5942,7 +5947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>300</v>
       </c>
@@ -5957,7 +5962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>400</v>
       </c>
@@ -5972,7 +5977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>500</v>
       </c>
@@ -5987,7 +5992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>600</v>
       </c>
@@ -6002,7 +6007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>700</v>
       </c>
@@ -6018,7 +6023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>800</v>
       </c>
@@ -6033,7 +6038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>900</v>
       </c>
@@ -6048,7 +6053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1000</v>
       </c>
@@ -6063,7 +6068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1100</v>
       </c>
@@ -6078,7 +6083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1200</v>
       </c>
@@ -6093,7 +6098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1300</v>
       </c>
@@ -6108,7 +6113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1400</v>
       </c>
@@ -6123,7 +6128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1500</v>
       </c>
@@ -6138,7 +6143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1600</v>
       </c>
@@ -6153,7 +6158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1700</v>
       </c>
@@ -6168,7 +6173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1800</v>
       </c>
@@ -6183,7 +6188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1900</v>
       </c>
@@ -6198,7 +6203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2000</v>
       </c>
@@ -6230,37 +6235,37 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
     <col min="4" max="4" width="8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="8.28515625" style="2" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="8.33203125" style="2" customWidth="1"/>
+    <col min="7" max="11" width="9.109375" style="2"/>
     <col min="12" max="12" width="8" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="2"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="2"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -6301,7 +6306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2.5</v>
       </c>
@@ -6347,7 +6352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <f>G3*$A$3</f>
         <v>24414062.5</v>
@@ -6391,7 +6396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B49" si="1">G4*$A$3</f>
         <v>5960464477.5390625</v>
@@ -6435,7 +6440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <f t="shared" si="1"/>
         <v>1455191522836.6851</v>
@@ -6479,7 +6484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <f t="shared" si="1"/>
         <v>355271367880050.06</v>
@@ -6523,7 +6528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <f t="shared" si="1"/>
         <v>8.6736173798840352E+16</v>
@@ -6567,7 +6572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" si="1"/>
         <v>2.1175823681357505E+19</v>
@@ -6611,7 +6616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <f t="shared" si="1"/>
         <v>5.1698788284564232E+21</v>
@@ -6655,7 +6660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f t="shared" si="1"/>
         <v>1.2621774483536189E+24</v>
@@ -6699,7 +6704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="2">
         <f t="shared" si="1"/>
@@ -6744,7 +6749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <f t="shared" si="1"/>
         <v>7.5231638452626418E+28</v>
@@ -6788,7 +6793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <f t="shared" si="1"/>
         <v>1.8367099231598243E+31</v>
@@ -6832,7 +6837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <f t="shared" si="1"/>
         <v>4.4841550858394151E+33</v>
@@ -6876,7 +6881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <f t="shared" si="1"/>
         <v>1.0947644252537635E+36</v>
@@ -6920,7 +6925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <f t="shared" si="1"/>
         <v>2.6727647100921968E+38</v>
@@ -6964,7 +6969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <f t="shared" si="1"/>
         <v>6.5253044679985285E+40</v>
@@ -7008,7 +7013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f t="shared" si="1"/>
         <v>1.5930919111324532E+43</v>
@@ -7052,7 +7057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <f t="shared" si="1"/>
         <v>3.889384548663216E+45</v>
@@ -7096,7 +7101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <f t="shared" si="1"/>
         <v>9.4955677457598038E+47</v>
@@ -7140,7 +7145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" si="1"/>
         <v>2.3182538441796395E+50</v>
@@ -7184,7 +7189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <f t="shared" si="1"/>
         <v>5.659799424266698E+52</v>
@@ -7228,7 +7233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <f t="shared" si="1"/>
         <v>1.3817869688151118E+55</v>
@@ -7272,7 +7277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <f t="shared" si="1"/>
         <v>3.3735033418337689E+57</v>
@@ -7316,7 +7321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <f t="shared" si="1"/>
         <v>8.23609214314885E+59</v>
@@ -7360,7 +7365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <f t="shared" si="1"/>
         <v>2.01076468338595E+62</v>
@@ -7404,7 +7409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <f t="shared" si="1"/>
         <v>4.9090934652977289E+64</v>
@@ -7448,7 +7453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <f t="shared" si="1"/>
         <v>1.1985091468012034E+67</v>
@@ -7492,7 +7497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <f t="shared" si="1"/>
         <v>2.9260477216826252E+69</v>
@@ -7536,7 +7541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <f t="shared" si="1"/>
         <v>7.1436711955142217E+71</v>
@@ -7580,7 +7585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <f t="shared" si="1"/>
         <v>1.7440603504673393E+74</v>
@@ -7624,7 +7629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <f t="shared" si="1"/>
         <v>4.2579598400081532E+76</v>
@@ -7668,7 +7673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <f t="shared" si="1"/>
         <v>1.0395409765644905E+79</v>
@@ -7712,7 +7717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <f t="shared" si="1"/>
         <v>2.5379418373156499E+81</v>
@@ -7756,7 +7761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <f t="shared" si="1"/>
         <v>6.1961470637589113E+83</v>
@@ -7800,7 +7805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <f t="shared" si="1"/>
         <v>1.5127312167380153E+86</v>
@@ -7844,7 +7849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <f t="shared" si="1"/>
         <v>3.6931914471142954E+88</v>
@@ -7888,7 +7893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <f t="shared" si="1"/>
         <v>9.0165806814313848E+90</v>
@@ -7932,7 +7937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <f t="shared" si="1"/>
         <v>2.2013136429275838E+93</v>
@@ -7976,7 +7981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <f t="shared" si="1"/>
         <v>5.3743008860536709E+95</v>
@@ -8020,7 +8025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <f t="shared" si="1"/>
         <v>1.3120851772591972E+98</v>
@@ -8064,7 +8069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <f t="shared" si="1"/>
         <v>3.2033329522929616E+100</v>
@@ -8108,7 +8113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <f t="shared" si="1"/>
         <v>7.8206370905589884E+102</v>
@@ -8152,7 +8157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <f t="shared" si="1"/>
         <v>1.909335227187253E+105</v>
@@ -8196,7 +8201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <f t="shared" si="1"/>
         <v>4.6614629570001299E+107</v>
@@ -8240,7 +8245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <f t="shared" si="1"/>
         <v>1.1380524797363601E+110</v>
@@ -8284,7 +8289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <f t="shared" si="1"/>
         <v>2.7784484368563476E+112</v>
@@ -8328,7 +8333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <f t="shared" si="1"/>
         <v>6.7833213790438169E+114</v>
@@ -8384,27 +8389,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FDCCBE-D83F-4C99-A11B-788590AA572B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -8427,30 +8432,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="26">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26">
+        <v>2</v>
+      </c>
+      <c r="F3" s="26">
+        <v>2</v>
+      </c>
+      <c r="G3" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>50</v>
       </c>
@@ -8458,45 +8463,45 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26">
+        <v>2</v>
+      </c>
+      <c r="E4" s="26">
+        <v>2</v>
+      </c>
+      <c r="F4" s="26">
+        <v>2</v>
+      </c>
+      <c r="G4" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D5" s="26">
+        <v>2</v>
+      </c>
+      <c r="E5" s="26">
+        <v>2</v>
+      </c>
+      <c r="F5" s="26">
+        <v>2</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>200</v>
       </c>
@@ -8506,43 +8511,43 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="26">
+        <v>2</v>
+      </c>
+      <c r="E6" s="26">
+        <v>2</v>
+      </c>
+      <c r="F6" s="26">
+        <v>2</v>
+      </c>
+      <c r="G6" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>250</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>2</v>
+      </c>
+      <c r="E7" s="26">
+        <v>2</v>
+      </c>
+      <c r="F7" s="26">
+        <v>2</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>300</v>
       </c>
@@ -8552,112 +8557,112 @@
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="26">
+        <v>2</v>
+      </c>
+      <c r="E8" s="26">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26">
+        <v>2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>400</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D9" s="26">
+        <v>2</v>
+      </c>
+      <c r="E9" s="26">
+        <v>2</v>
+      </c>
+      <c r="F9" s="26">
+        <v>2</v>
+      </c>
+      <c r="G9" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>500</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D10" s="26">
+        <v>2</v>
+      </c>
+      <c r="E10" s="26">
+        <v>2</v>
+      </c>
+      <c r="F10" s="26">
+        <v>2</v>
+      </c>
+      <c r="G10" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>600</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D11" s="26">
+        <v>2</v>
+      </c>
+      <c r="E11" s="26">
+        <v>2</v>
+      </c>
+      <c r="F11" s="26">
+        <v>2</v>
+      </c>
+      <c r="G11" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>700</v>
       </c>
       <c r="B12" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>800</v>
       </c>
@@ -8667,20 +8672,20 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="26">
+        <v>2</v>
+      </c>
+      <c r="E13" s="26">
+        <v>2</v>
+      </c>
+      <c r="F13" s="26">
+        <v>2</v>
+      </c>
+      <c r="G13" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>900</v>
       </c>
@@ -8690,20 +8695,20 @@
       <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="26">
+        <v>2</v>
+      </c>
+      <c r="E14" s="26">
+        <v>2</v>
+      </c>
+      <c r="F14" s="26">
+        <v>2</v>
+      </c>
+      <c r="G14" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1000</v>
       </c>
@@ -8713,66 +8718,66 @@
       <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="26">
+        <v>2</v>
+      </c>
+      <c r="E15" s="26">
+        <v>2</v>
+      </c>
+      <c r="F15" s="26">
+        <v>2</v>
+      </c>
+      <c r="G15" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1100</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D16" s="26">
+        <v>2</v>
+      </c>
+      <c r="E16" s="26">
+        <v>2</v>
+      </c>
+      <c r="F16" s="26">
+        <v>2</v>
+      </c>
+      <c r="G16" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1200</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D17" s="26">
+        <v>2</v>
+      </c>
+      <c r="E17" s="26">
+        <v>2</v>
+      </c>
+      <c r="F17" s="26">
+        <v>2</v>
+      </c>
+      <c r="G17" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1300</v>
       </c>
@@ -8782,20 +8787,20 @@
       <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="26">
+        <v>2</v>
+      </c>
+      <c r="E18" s="26">
+        <v>2</v>
+      </c>
+      <c r="F18" s="26">
+        <v>2</v>
+      </c>
+      <c r="G18" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1400</v>
       </c>
@@ -8805,20 +8810,20 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="26">
+        <v>2</v>
+      </c>
+      <c r="E19" s="26">
+        <v>2</v>
+      </c>
+      <c r="F19" s="26">
+        <v>2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1500</v>
       </c>
@@ -8828,20 +8833,20 @@
       <c r="C20" s="2">
         <v>2</v>
       </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="26">
+        <v>2</v>
+      </c>
+      <c r="E20" s="26">
+        <v>2</v>
+      </c>
+      <c r="F20" s="26">
+        <v>2</v>
+      </c>
+      <c r="G20" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1600</v>
       </c>
@@ -8851,20 +8856,20 @@
       <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="26">
+        <v>2</v>
+      </c>
+      <c r="E21" s="26">
+        <v>2</v>
+      </c>
+      <c r="F21" s="26">
+        <v>2</v>
+      </c>
+      <c r="G21" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1700</v>
       </c>
@@ -8874,20 +8879,20 @@
       <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="26">
+        <v>2</v>
+      </c>
+      <c r="E22" s="26">
+        <v>2</v>
+      </c>
+      <c r="F22" s="26">
+        <v>2</v>
+      </c>
+      <c r="G22" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1800</v>
       </c>
@@ -8897,20 +8902,20 @@
       <c r="C23" s="2">
         <v>2</v>
       </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="26">
+        <v>2</v>
+      </c>
+      <c r="E23" s="26">
+        <v>2</v>
+      </c>
+      <c r="F23" s="26">
+        <v>2</v>
+      </c>
+      <c r="G23" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1900</v>
       </c>
@@ -8920,20 +8925,20 @@
       <c r="C24" s="2">
         <v>2</v>
       </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="26">
+        <v>2</v>
+      </c>
+      <c r="E24" s="26">
+        <v>2</v>
+      </c>
+      <c r="F24" s="26">
+        <v>2</v>
+      </c>
+      <c r="G24" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2000</v>
       </c>
@@ -8943,16 +8948,16 @@
       <c r="C25" s="2">
         <v>2</v>
       </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="D25" s="26">
+        <v>2</v>
+      </c>
+      <c r="E25" s="26">
+        <v>2</v>
+      </c>
+      <c r="F25" s="26">
+        <v>2</v>
+      </c>
+      <c r="G25" s="26">
         <v>2</v>
       </c>
     </row>
@@ -8968,36 +8973,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B607FD-0A38-4A6B-A96A-ADA1BC478DD3}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
@@ -9014,7 +9019,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>50</v>
       </c>
@@ -9031,7 +9036,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>0</v>
       </c>
@@ -9048,7 +9053,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -9067,7 +9072,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -9086,7 +9091,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -9105,7 +9110,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -9124,7 +9129,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -9143,7 +9148,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -9162,7 +9167,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>7</v>
       </c>
@@ -9181,7 +9186,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>8</v>
       </c>
@@ -9200,7 +9205,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -9218,15 +9223,15 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D2"/>
@@ -9241,22 +9246,22 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="8" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>32</v>
       </c>
@@ -9264,30 +9269,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>8</v>
       </c>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>50000</v>
       </c>
       <c r="B4" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <f>A4*$A$3</f>
         <v>400000</v>
       </c>
       <c r="B5" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <f t="shared" ref="A6:A55" si="0">A5*$A$3</f>
         <v>3200000</v>
@@ -9296,7 +9301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>25600000</v>
@@ -9305,16 +9310,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>204800000</v>
       </c>
       <c r="B8" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>1638400000</v>
@@ -9323,7 +9328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>13107200000</v>
@@ -9332,16 +9337,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>104857600000</v>
       </c>
       <c r="B11" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>838860800000</v>
@@ -9350,7 +9355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>6710886400000</v>
@@ -9359,7 +9364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>53687091200000</v>
@@ -9368,7 +9373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>429496729600000</v>
@@ -9377,7 +9382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>3435973836800000</v>
@@ -9386,7 +9391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>2.74877906944E+16</v>
@@ -9395,7 +9400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>2.199023255552E+17</v>
@@ -9404,7 +9409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>1.7592186044416E+18</v>
@@ -9413,7 +9418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>1.40737488355328E+19</v>
@@ -9422,7 +9427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>1.125899906842624E+20</v>
@@ -9431,7 +9436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <f t="shared" si="0"/>
         <v>9.007199254740992E+20</v>
@@ -9440,7 +9445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <f t="shared" si="0"/>
         <v>7.2057594037927936E+21</v>
@@ -9449,7 +9454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <f t="shared" si="0"/>
         <v>5.7646075230342349E+22</v>
@@ -9458,7 +9463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <f t="shared" si="0"/>
         <v>4.6116860184273879E+23</v>
@@ -9467,7 +9472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f t="shared" si="0"/>
         <v>3.6893488147419103E+24</v>
@@ -9476,7 +9481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <f t="shared" si="0"/>
         <v>2.9514790517935283E+25</v>
@@ -9485,7 +9490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <f t="shared" si="0"/>
         <v>2.3611832414348226E+26</v>
@@ -9494,7 +9499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <f t="shared" si="0"/>
         <v>1.8889465931478581E+27</v>
@@ -9503,7 +9508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <f t="shared" si="0"/>
         <v>1.5111572745182865E+28</v>
@@ -9512,7 +9517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <f t="shared" si="0"/>
         <v>1.2089258196146292E+29</v>
@@ -9521,7 +9526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <f t="shared" si="0"/>
         <v>9.6714065569170334E+29</v>
@@ -9530,7 +9535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <f t="shared" si="0"/>
         <v>7.7371252455336267E+30</v>
@@ -9539,7 +9544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <f t="shared" si="0"/>
         <v>6.1897001964269014E+31</v>
@@ -9548,7 +9553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <f t="shared" si="0"/>
         <v>4.9517601571415211E+32</v>
@@ -9557,7 +9562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <f t="shared" si="0"/>
         <v>3.9614081257132169E+33</v>
@@ -9566,7 +9571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <f t="shared" si="0"/>
         <v>3.1691265005705735E+34</v>
@@ -9575,7 +9580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <f t="shared" si="0"/>
         <v>2.5353012004564588E+35</v>
@@ -9584,7 +9589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <f t="shared" si="0"/>
         <v>2.028240960365167E+36</v>
@@ -9593,7 +9598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f t="shared" si="0"/>
         <v>1.6225927682921336E+37</v>
@@ -9602,7 +9607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <f t="shared" si="0"/>
         <v>1.2980742146337069E+38</v>
@@ -9611,7 +9616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <f t="shared" si="0"/>
         <v>1.0384593717069655E+39</v>
@@ -9620,7 +9625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <f t="shared" si="0"/>
         <v>8.3076749736557242E+39</v>
@@ -9629,7 +9634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <f t="shared" si="0"/>
         <v>6.6461399789245794E+40</v>
@@ -9638,7 +9643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <f t="shared" si="0"/>
         <v>5.3169119831396635E+41</v>
@@ -9647,7 +9652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <f t="shared" si="0"/>
         <v>4.2535295865117308E+42</v>
@@ -9656,7 +9661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <f t="shared" si="0"/>
         <v>3.4028236692093846E+43</v>
@@ -9665,7 +9670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <f t="shared" si="0"/>
         <v>2.7222589353675077E+44</v>
@@ -9674,7 +9679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <f t="shared" si="0"/>
         <v>2.1778071482940062E+45</v>
@@ -9683,7 +9688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <f t="shared" si="0"/>
         <v>1.7422457186352049E+46</v>
@@ -9692,7 +9697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <f t="shared" si="0"/>
         <v>1.3937965749081639E+47</v>
@@ -9701,7 +9706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <f t="shared" si="0"/>
         <v>1.1150372599265312E+48</v>
@@ -9710,7 +9715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <f t="shared" si="0"/>
         <v>8.9202980794122493E+48</v>
@@ -9719,7 +9724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <f t="shared" si="0"/>
         <v>7.1362384635297994E+49</v>
@@ -9728,7 +9733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <f t="shared" si="0"/>
         <v>5.7089907708238395E+50</v>
@@ -9753,27 +9758,27 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="14" t="s">
         <v>32</v>
       </c>
@@ -9781,7 +9786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -9792,7 +9797,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>25</v>
       </c>
@@ -9806,7 +9811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>50</v>
       </c>
@@ -9821,7 +9826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -9836,7 +9841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>200</v>
       </c>
@@ -9851,7 +9856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>250</v>
       </c>
@@ -9866,7 +9871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>300</v>
       </c>
@@ -9881,7 +9886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>400</v>
       </c>
@@ -9896,7 +9901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>500</v>
       </c>
@@ -9911,7 +9916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>600</v>
       </c>
@@ -9926,7 +9931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>700</v>
       </c>
@@ -9941,7 +9946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>800</v>
       </c>
@@ -9956,7 +9961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>900</v>
       </c>
@@ -9971,7 +9976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1000</v>
       </c>
@@ -9986,7 +9991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1100</v>
       </c>
@@ -10001,7 +10006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1200</v>
       </c>
@@ -10016,7 +10021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1300</v>
       </c>
@@ -10031,7 +10036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1400</v>
       </c>
@@ -10046,7 +10051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1500</v>
       </c>
@@ -10061,7 +10066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1600</v>
       </c>
@@ -10076,7 +10081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1700</v>
       </c>
@@ -10091,7 +10096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1800</v>
       </c>
@@ -10106,7 +10111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1900</v>
       </c>
@@ -10121,7 +10126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2000</v>
       </c>
@@ -10136,7 +10141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" s="21">
         <f t="shared" si="0"/>
         <v>1.0534139981855363E+82</v>
@@ -10145,7 +10150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" s="21">
         <f t="shared" si="0"/>
         <v>1.0987108001075143E+85</v>
@@ -10154,7 +10159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="21">
         <f t="shared" si="0"/>
         <v>1.1459553645121374E+88</v>
@@ -10163,7 +10168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="21">
         <f t="shared" si="0"/>
         <v>1.1952314451861593E+91</v>
@@ -10172,7 +10177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" s="21">
         <f t="shared" si="0"/>
         <v>1.2466263973291641E+94</v>
@@ -10181,7 +10186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" s="21">
         <f t="shared" si="0"/>
         <v>1.3002313324143182E+97</v>
@@ -10190,7 +10195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="21">
         <f t="shared" si="0"/>
         <v>1.356141279708134E+100</v>
@@ -10199,7 +10204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="21">
         <f t="shared" si="0"/>
         <v>1.4144553547355838E+103</v>
@@ -10208,7 +10213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="21">
         <f t="shared" si="0"/>
         <v>1.4752769349892139E+106</v>
@@ -10217,7 +10222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="21">
         <f t="shared" si="0"/>
         <v>1.5387138431937502E+109</v>
@@ -10226,7 +10231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="21">
         <f t="shared" si="0"/>
         <v>1.6048785384510814E+112</v>
@@ -10235,7 +10240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="21">
         <f>C37*C$3</f>
         <v>1.6738883156044778E+115</v>
@@ -10244,7 +10249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="21">
         <f t="shared" si="0"/>
         <v>1.7458655131754704E+118</v>
@@ -10253,7 +10258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="21">
         <f t="shared" si="0"/>
         <v>1.8209377302420156E+121</v>
@@ -10262,7 +10267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="21">
         <f t="shared" si="0"/>
         <v>1.8992380526424223E+124</v>
@@ -10271,7 +10276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="21">
         <f t="shared" si="0"/>
         <v>1.9809052889060464E+127</v>
@@ -10280,7 +10285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="21">
         <f t="shared" si="0"/>
         <v>2.0660842163290064E+130</v>
@@ -10289,7 +10294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="21">
         <f t="shared" si="0"/>
         <v>2.1549258376311537E+133</v>
@@ -10298,7 +10303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="21">
         <f t="shared" si="0"/>
         <v>2.2475876486492934E+136</v>
@@ -10307,7 +10312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="21">
         <f t="shared" si="0"/>
         <v>2.3442339175412132E+139</v>
@@ -10316,7 +10321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="21">
         <f t="shared" si="0"/>
         <v>2.4450359759954855E+142</v>
@@ -10325,7 +10330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="21">
         <f t="shared" si="0"/>
         <v>2.5501725229632912E+145</v>
@@ -10334,7 +10339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="21">
         <f t="shared" si="0"/>
         <v>2.6598299414507128E+148</v>
@@ -10343,7 +10348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="21">
         <f>C49*C$3</f>
         <v>2.7742026289330933E+151</v>
@@ -10352,7 +10357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="21">
         <f t="shared" si="0"/>
         <v>2.8934933419772161E+154</v>
@@ -10361,7 +10366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="21">
         <f t="shared" si="0"/>
         <v>3.0179135556822365E+157</v>
@@ -10370,7 +10375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="21">
         <f t="shared" si="0"/>
         <v>3.1476838385765726E+160</v>
@@ -10379,7 +10384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="21">
         <f t="shared" si="0"/>
         <v>3.2830342436353652E+163</v>
@@ -10388,7 +10393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="21">
         <f t="shared" si="0"/>
         <v>3.4242047161116859E+166</v>
@@ -10414,23 +10419,23 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="14"/>
-    <col min="3" max="3" width="14.140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="14" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="14"/>
+    <col min="1" max="2" width="8.88671875" style="14"/>
+    <col min="3" max="3" width="14.109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="14" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>32</v>
       </c>
@@ -10438,12 +10443,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1340</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>2000000000</v>
       </c>
@@ -10463,7 +10468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <f t="shared" ref="A5:A36" si="0">A4*$A$3</f>
         <v>2680000000000</v>
@@ -10484,7 +10489,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>3591200000000000</v>
@@ -10493,7 +10498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>4.812208E+18</v>
@@ -10502,7 +10507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>6.4483587199999997E+21</v>
@@ -10511,7 +10516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>8.6408006848000002E+24</v>
@@ -10520,7 +10525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>1.1578672917631999E+28</v>
@@ -10529,7 +10534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>1.5515421709626878E+31</v>
@@ -10538,7 +10543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>2.0790665090900016E+34</v>
@@ -10547,7 +10552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>2.7859491221806023E+37</v>
@@ -10556,7 +10561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>3.733171823722007E+40</v>
@@ -10565,7 +10570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>5.0024502437874897E+43</v>
@@ -10574,7 +10579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>6.7032833266752364E+46</v>
@@ -10583,7 +10588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>8.9823996577448171E+49</v>
@@ -10592,7 +10597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>1.2036415541378056E+53</v>
@@ -10601,7 +10606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>1.6128796825446595E+56</v>
@@ -10610,7 +10615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>2.1612587746098438E+59</v>
@@ -10619,7 +10624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>2.8960867579771907E+62</v>
@@ -10628,7 +10633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <f t="shared" si="0"/>
         <v>3.8807562556894355E+65</v>
@@ -10637,7 +10642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <f t="shared" si="0"/>
         <v>5.2002133826238436E+68</v>
@@ -10646,7 +10651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <f t="shared" si="0"/>
         <v>6.9682859327159502E+71</v>
@@ -10655,7 +10660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <f t="shared" si="0"/>
         <v>9.3375031498393727E+74</v>
@@ -10664,7 +10669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f t="shared" si="0"/>
         <v>1.2512254220784759E+78</v>
@@ -10673,7 +10678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <f t="shared" si="0"/>
         <v>1.6766420655851576E+81</v>
@@ -10682,7 +10687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <f t="shared" si="0"/>
         <v>2.2467003678841114E+84</v>
@@ -10691,7 +10696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <f t="shared" si="0"/>
         <v>3.0105784929647094E+87</v>
@@ -10700,7 +10705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <f t="shared" si="0"/>
         <v>4.0341751805727106E+90</v>
@@ -10709,7 +10714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <f t="shared" si="0"/>
         <v>5.4057947419674321E+93</v>
@@ -10718,7 +10723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <f t="shared" si="0"/>
         <v>7.2437649542363591E+96</v>
@@ -10727,7 +10732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <f t="shared" si="0"/>
         <v>9.7066450386767221E+99</v>
@@ -10736,7 +10741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <f t="shared" si="0"/>
         <v>1.3006904351826808E+103</v>
@@ -10745,7 +10750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <f t="shared" si="0"/>
         <v>1.7429251831447923E+106</v>
@@ -10754,7 +10759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <f t="shared" si="0"/>
         <v>2.3355197454140217E+109</v>
@@ -10763,7 +10768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <f t="shared" ref="A37:A55" si="1">A36*$A$3</f>
         <v>3.1295964588547892E+112</v>
@@ -10772,7 +10777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <f t="shared" si="1"/>
         <v>4.1936592548654178E+115</v>
@@ -10781,7 +10786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <f t="shared" si="1"/>
         <v>5.6195034015196594E+118</v>
@@ -10790,7 +10795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f t="shared" si="1"/>
         <v>7.5301345580363438E+121</v>
@@ -10799,7 +10804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <f t="shared" si="1"/>
         <v>1.00903803077687E+125</v>
@@ -10808,7 +10813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <f t="shared" si="1"/>
         <v>1.3521109612410058E+128</v>
@@ -10817,7 +10822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <f t="shared" si="1"/>
         <v>1.8118286880629478E+131</v>
@@ -10826,7 +10831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <f t="shared" si="1"/>
         <v>2.4278504420043499E+134</v>
@@ -10835,7 +10840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <f t="shared" si="1"/>
         <v>3.2533195922858287E+137</v>
@@ -10844,7 +10849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <f t="shared" si="1"/>
         <v>4.3594482536630108E+140</v>
@@ -10853,7 +10858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <f t="shared" si="1"/>
         <v>5.8416606599084346E+143</v>
@@ -10862,7 +10867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <f t="shared" si="1"/>
         <v>7.8278252842773027E+146</v>
@@ -10871,7 +10876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <f t="shared" si="1"/>
         <v>1.0489285880931585E+150</v>
@@ -10880,7 +10885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <f t="shared" si="1"/>
         <v>1.4055643080448324E+153</v>
@@ -10889,7 +10894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <f t="shared" si="1"/>
         <v>1.8834561727800754E+156</v>
@@ -10898,7 +10903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <f t="shared" si="1"/>
         <v>2.523831271525301E+159</v>
@@ -10907,7 +10912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <f t="shared" si="1"/>
         <v>3.3819339038439033E+162</v>
@@ -10916,7 +10921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <f t="shared" si="1"/>
         <v>4.5317914311508306E+165</v>
@@ -10925,7 +10930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <f t="shared" si="1"/>
         <v>6.0726005177421126E+168</v>

--- a/IdlePowerBalancing.xlsx
+++ b/IdlePowerBalancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\IdlePowerBalancing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FC3FD7-DAD9-44A0-9DD0-16F3BC53B1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF5EEB7-5C11-43C6-BB55-B9DB58C1F9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="743" firstSheet="2" activeTab="2" xr2:uid="{28C085D8-E2A0-418F-8928-7A7EE2BAEA8D}"/>
+    <workbookView xWindow="14303" yWindow="-4147" windowWidth="28995" windowHeight="15795" tabRatio="743" firstSheet="3" activeTab="10" xr2:uid="{28C085D8-E2A0-418F-8928-7A7EE2BAEA8D}"/>
   </bookViews>
   <sheets>
     <sheet name="prestige_values" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="demand_multi" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1476,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FBFBAD-315E-452A-8A56-E96C8D5E9E73}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D3:D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1525,7 @@
         <v>2000000</v>
       </c>
       <c r="D3" s="7">
-        <v>5.0000000000000002E+25</v>
+        <v>5000000000</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -1541,7 +1540,7 @@
       </c>
       <c r="D4" s="7">
         <f>D3*$C$3</f>
-        <v>1.0000000000000001E+32</v>
+        <v>1E+16</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -1556,7 +1555,7 @@
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D40" si="0">D4*$C$3</f>
-        <v>2E+38</v>
+        <v>2E+22</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1571,7 +1570,7 @@
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>3.9999999999999996E+44</v>
+        <v>3.9999999999999998E+28</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1586,7 +1585,7 @@
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>7.9999999999999989E+50</v>
+        <v>7.9999999999999996E+34</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -1601,7 +1600,7 @@
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>1.5999999999999998E+57</v>
+        <v>1.5999999999999999E+41</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1616,7 +1615,7 @@
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>3.1999999999999997E+63</v>
+        <v>3.1999999999999996E+47</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -1631,7 +1630,7 @@
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>6.3999999999999997E+69</v>
+        <v>6.3999999999999991E+53</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -1646,7 +1645,7 @@
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>1.2799999999999999E+76</v>
+        <v>1.2799999999999997E+60</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -1662,7 +1661,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>2.56E+82</v>
+        <v>2.5599999999999997E+66</v>
       </c>
       <c r="E12" s="12">
         <v>5</v>
@@ -1677,7 +1676,7 @@
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>5.1200000000000001E+88</v>
+        <v>5.1199999999999996E+72</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -1692,7 +1691,7 @@
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
-        <v>1.024E+95</v>
+        <v>1.0239999999999999E+79</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1707,7 +1706,7 @@
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>2.048E+101</v>
+        <v>2.0479999999999999E+85</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1722,7 +1721,7 @@
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
-        <v>4.096E+107</v>
+        <v>4.0959999999999998E+91</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
@@ -1737,7 +1736,7 @@
       </c>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
-        <v>8.1920000000000002E+113</v>
+        <v>8.1920000000000002E+97</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -1752,7 +1751,7 @@
       </c>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
-        <v>1.6384E+120</v>
+        <v>1.6384E+104</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -1767,7 +1766,7 @@
       </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>3.2768E+126</v>
+        <v>3.2768000000000003E+110</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1782,7 +1781,7 @@
       </c>
       <c r="D20" s="7">
         <f t="shared" si="0"/>
-        <v>6.5536000000000005E+132</v>
+        <v>6.5536000000000009E+116</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -1797,7 +1796,7 @@
       </c>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
-        <v>1.3107200000000002E+139</v>
+        <v>1.3107200000000002E+123</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -1812,7 +1811,7 @@
       </c>
       <c r="D22" s="7">
         <f>D21*$C$3</f>
-        <v>2.6214400000000002E+145</v>
+        <v>2.6214400000000005E+129</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -1827,7 +1826,7 @@
       </c>
       <c r="D23" s="7">
         <f t="shared" si="0"/>
-        <v>5.2428800000000008E+151</v>
+        <v>5.242880000000001E+135</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1842,7 +1841,7 @@
       </c>
       <c r="D24" s="7">
         <f t="shared" si="0"/>
-        <v>1.0485760000000002E+158</v>
+        <v>1.0485760000000002E+142</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -1857,7 +1856,7 @@
       </c>
       <c r="D25" s="7">
         <f t="shared" si="0"/>
-        <v>2.0971520000000004E+164</v>
+        <v>2.0971520000000004E+148</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -1869,7 +1868,7 @@
       </c>
       <c r="D26" s="7">
         <f>D25*$C$3</f>
-        <v>4.1943040000000011E+170</v>
+        <v>4.1943040000000008E+154</v>
       </c>
       <c r="E26" s="27">
         <v>2</v>
@@ -1881,7 +1880,7 @@
       </c>
       <c r="D27" s="7">
         <f t="shared" si="0"/>
-        <v>8.3886080000000025E+176</v>
+        <v>8.3886080000000016E+160</v>
       </c>
       <c r="E27" s="27">
         <v>2</v>
@@ -1893,7 +1892,7 @@
       </c>
       <c r="D28" s="7">
         <f t="shared" si="0"/>
-        <v>1.6777216000000005E+183</v>
+        <v>1.6777216000000003E+167</v>
       </c>
       <c r="E28" s="27">
         <v>2</v>
@@ -1905,7 +1904,7 @@
       </c>
       <c r="D29" s="7">
         <f t="shared" si="0"/>
-        <v>3.3554432000000012E+189</v>
+        <v>3.3554432000000003E+173</v>
       </c>
       <c r="E29" s="27">
         <v>2</v>
@@ -1917,7 +1916,7 @@
       </c>
       <c r="D30" s="7">
         <f t="shared" si="0"/>
-        <v>6.7108864000000022E+195</v>
+        <v>6.7108864000000006E+179</v>
       </c>
       <c r="E30" s="27">
         <v>2</v>
@@ -1929,7 +1928,7 @@
       </c>
       <c r="D31" s="7">
         <f t="shared" si="0"/>
-        <v>1.3421772800000004E+202</v>
+        <v>1.3421772800000001E+186</v>
       </c>
       <c r="E31" s="27">
         <v>2</v>
@@ -1943,7 +1942,7 @@
       <c r="C32" s="27"/>
       <c r="D32" s="7">
         <f>D31*$C$3</f>
-        <v>2.6843545600000008E+208</v>
+        <v>2.68435456E+192</v>
       </c>
       <c r="E32" s="27"/>
     </row>
@@ -1953,7 +1952,7 @@
       </c>
       <c r="D33" s="7">
         <f t="shared" si="0"/>
-        <v>5.3687091200000021E+214</v>
+        <v>5.3687091200000004E+198</v>
       </c>
       <c r="E33" s="27">
         <v>2</v>
@@ -1965,7 +1964,7 @@
       </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
-        <v>1.0737418240000005E+221</v>
+        <v>1.0737418240000002E+205</v>
       </c>
       <c r="E34" s="27">
         <v>2</v>
@@ -1977,7 +1976,7 @@
       </c>
       <c r="D35" s="7">
         <f t="shared" si="0"/>
-        <v>2.147483648000001E+227</v>
+        <v>2.1474836480000003E+211</v>
       </c>
       <c r="E35" s="27">
         <v>2</v>
@@ -1989,7 +1988,7 @@
       </c>
       <c r="D36" s="7">
         <f t="shared" si="0"/>
-        <v>4.2949672960000016E+233</v>
+        <v>4.2949672960000004E+217</v>
       </c>
       <c r="E36" s="27">
         <v>2</v>
@@ -2001,7 +2000,7 @@
       </c>
       <c r="D37" s="7">
         <f t="shared" si="0"/>
-        <v>8.5899345920000027E+239</v>
+        <v>8.5899345920000006E+223</v>
       </c>
       <c r="E37" s="27">
         <v>2</v>
@@ -2013,7 +2012,7 @@
       </c>
       <c r="D38" s="7">
         <f t="shared" si="0"/>
-        <v>1.7179869184000005E+246</v>
+        <v>1.7179869184000002E+230</v>
       </c>
       <c r="E38" s="27">
         <v>2</v>
@@ -2025,7 +2024,7 @@
       </c>
       <c r="D39" s="7">
         <f t="shared" si="0"/>
-        <v>3.435973836800001E+252</v>
+        <v>3.4359738368000003E+236</v>
       </c>
       <c r="E39" s="27">
         <v>2</v>
@@ -2037,7 +2036,7 @@
       </c>
       <c r="D40" s="7">
         <f t="shared" si="0"/>
-        <v>6.871947673600002E+258</v>
+        <v>6.8719476736000004E+242</v>
       </c>
       <c r="E40" s="27">
         <v>2</v>
@@ -2348,7 +2347,7 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="20">
-        <v>5.0000000000000002E+25</v>
+        <v>9000000000</v>
       </c>
       <c r="D4" s="13">
         <v>2</v>
@@ -2413,7 +2412,7 @@
       </c>
       <c r="C5" s="20">
         <f>C4*C$3</f>
-        <v>1.0000000000000001E+32</v>
+        <v>1.8E+16</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -2428,7 +2427,7 @@
       </c>
       <c r="C6" s="20">
         <f t="shared" ref="C6:C33" si="0">C5*C$3</f>
-        <v>2E+38</v>
+        <v>3.6E+22</v>
       </c>
       <c r="D6" s="13">
         <v>2</v>
@@ -2443,7 +2442,7 @@
       </c>
       <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v>3.9999999999999996E+44</v>
+        <v>7.1999999999999999E+28</v>
       </c>
       <c r="D7" s="13">
         <v>2</v>
@@ -2458,7 +2457,7 @@
       </c>
       <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v>7.9999999999999989E+50</v>
+        <v>1.44E+35</v>
       </c>
       <c r="D8" s="13">
         <v>2</v>
@@ -2473,7 +2472,7 @@
       </c>
       <c r="C9" s="20">
         <f t="shared" si="0"/>
-        <v>1.5999999999999998E+57</v>
+        <v>2.88E+41</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -2488,7 +2487,7 @@
       </c>
       <c r="C10" s="20">
         <f t="shared" si="0"/>
-        <v>3.1999999999999997E+63</v>
+        <v>5.7599999999999998E+47</v>
       </c>
       <c r="D10" s="13">
         <v>2</v>
@@ -2503,7 +2502,7 @@
       </c>
       <c r="C11" s="20">
         <f t="shared" si="0"/>
-        <v>6.3999999999999997E+69</v>
+        <v>1.152E+54</v>
       </c>
       <c r="D11" s="13">
         <v>2</v>
@@ -2518,7 +2517,7 @@
       </c>
       <c r="C12" s="20">
         <f t="shared" si="0"/>
-        <v>1.2799999999999999E+76</v>
+        <v>2.304E+60</v>
       </c>
       <c r="D12" s="13">
         <v>2</v>
@@ -2533,7 +2532,7 @@
       </c>
       <c r="C13" s="20">
         <f t="shared" si="0"/>
-        <v>2.56E+82</v>
+        <v>4.6080000000000002E+66</v>
       </c>
       <c r="D13" s="13">
         <v>2</v>
@@ -2548,7 +2547,7 @@
       </c>
       <c r="C14" s="20">
         <f t="shared" si="0"/>
-        <v>5.1200000000000001E+88</v>
+        <v>9.2159999999999999E+72</v>
       </c>
       <c r="D14" s="13">
         <v>2</v>
@@ -2563,7 +2562,7 @@
       </c>
       <c r="C15" s="20">
         <f t="shared" si="0"/>
-        <v>1.024E+95</v>
+        <v>1.8431999999999998E+79</v>
       </c>
       <c r="D15" s="13">
         <v>2</v>
@@ -2578,7 +2577,7 @@
       </c>
       <c r="C16" s="20">
         <f t="shared" si="0"/>
-        <v>2.048E+101</v>
+        <v>3.6863999999999995E+85</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
@@ -2593,7 +2592,7 @@
       </c>
       <c r="C17" s="20">
         <f t="shared" si="0"/>
-        <v>4.096E+107</v>
+        <v>7.372799999999999E+91</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
@@ -2608,7 +2607,7 @@
       </c>
       <c r="C18" s="20">
         <f t="shared" si="0"/>
-        <v>8.1920000000000002E+113</v>
+        <v>1.4745599999999997E+98</v>
       </c>
       <c r="D18" s="13">
         <v>2</v>
@@ -2623,7 +2622,7 @@
       </c>
       <c r="C19" s="20">
         <f t="shared" si="0"/>
-        <v>1.6384E+120</v>
+        <v>2.9491199999999993E+104</v>
       </c>
       <c r="D19" s="13">
         <v>2</v>
@@ -2638,7 +2637,7 @@
       </c>
       <c r="C20" s="20">
         <f t="shared" si="0"/>
-        <v>3.2768E+126</v>
+        <v>5.8982399999999988E+110</v>
       </c>
       <c r="D20" s="13">
         <v>2</v>
@@ -2653,7 +2652,7 @@
       </c>
       <c r="C21" s="20">
         <f t="shared" si="0"/>
-        <v>6.5536000000000005E+132</v>
+        <v>1.1796479999999997E+117</v>
       </c>
       <c r="D21" s="13">
         <v>2</v>
@@ -2668,7 +2667,7 @@
       </c>
       <c r="C22" s="20">
         <f t="shared" si="0"/>
-        <v>1.3107200000000002E+139</v>
+        <v>2.3592959999999994E+123</v>
       </c>
       <c r="D22" s="13">
         <v>2</v>
@@ -2683,7 +2682,7 @@
       </c>
       <c r="C23" s="20">
         <f t="shared" si="0"/>
-        <v>2.6214400000000002E+145</v>
+        <v>4.7185919999999986E+129</v>
       </c>
       <c r="D23" s="13">
         <v>2</v>
@@ -2698,7 +2697,7 @@
       </c>
       <c r="C24" s="20">
         <f>C23*C$3</f>
-        <v>5.2428800000000008E+151</v>
+        <v>9.4371839999999977E+135</v>
       </c>
       <c r="D24" s="13">
         <v>2</v>
@@ -2713,7 +2712,7 @@
       </c>
       <c r="C25" s="20">
         <f t="shared" si="0"/>
-        <v>1.0485760000000002E+158</v>
+        <v>1.8874367999999995E+142</v>
       </c>
       <c r="D25" s="13">
         <v>2</v>
@@ -2728,7 +2727,7 @@
       </c>
       <c r="C26" s="20">
         <f t="shared" si="0"/>
-        <v>2.0971520000000004E+164</v>
+        <v>3.774873599999999E+148</v>
       </c>
       <c r="D26" s="13">
         <v>2</v>
@@ -2740,7 +2739,7 @@
       </c>
       <c r="C27" s="20">
         <f t="shared" si="0"/>
-        <v>4.1943040000000011E+170</v>
+        <v>7.5497471999999977E+154</v>
       </c>
       <c r="D27" s="13">
         <v>2</v>
@@ -2752,7 +2751,7 @@
       </c>
       <c r="C28" s="20">
         <f t="shared" si="0"/>
-        <v>8.3886080000000025E+176</v>
+        <v>1.5099494399999995E+161</v>
       </c>
       <c r="D28" s="13">
         <v>2</v>
@@ -2764,7 +2763,7 @@
       </c>
       <c r="C29" s="20">
         <f t="shared" si="0"/>
-        <v>1.6777216000000005E+183</v>
+        <v>3.0198988799999991E+167</v>
       </c>
       <c r="D29" s="13">
         <v>2</v>
@@ -2777,7 +2776,7 @@
       <c r="B30" s="27"/>
       <c r="C30" s="20">
         <f>C29*C$3</f>
-        <v>3.3554432000000012E+189</v>
+        <v>6.0397977599999984E+173</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -2790,7 +2789,7 @@
       <c r="B31" s="27"/>
       <c r="C31" s="20">
         <f t="shared" si="0"/>
-        <v>6.7108864000000022E+195</v>
+        <v>1.2079595519999997E+180</v>
       </c>
       <c r="D31" s="13">
         <v>2</v>
@@ -2802,7 +2801,7 @@
       </c>
       <c r="C32" s="20">
         <f t="shared" si="0"/>
-        <v>1.3421772800000004E+202</v>
+        <v>2.4159191039999994E+186</v>
       </c>
       <c r="D32" s="13">
         <v>2</v>
@@ -2814,7 +2813,7 @@
       </c>
       <c r="C33" s="20">
         <f t="shared" si="0"/>
-        <v>2.6843545600000008E+208</v>
+        <v>4.8318382079999992E+192</v>
       </c>
       <c r="D33" s="13">
         <v>2</v>
@@ -2827,7 +2826,7 @@
       <c r="B34" s="27"/>
       <c r="C34" s="20">
         <f>C33*C$3</f>
-        <v>5.3687091200000021E+214</v>
+        <v>9.6636764159999973E+198</v>
       </c>
       <c r="D34" s="13">
         <v>2</v>
@@ -2839,7 +2838,7 @@
       </c>
       <c r="C35" s="20">
         <f>C34*C$3</f>
-        <v>1.0737418240000005E+221</v>
+        <v>1.9327352831999994E+205</v>
       </c>
       <c r="D35" s="13">
         <v>2</v>
@@ -2852,7 +2851,7 @@
       <c r="B36" s="27"/>
       <c r="C36" s="20">
         <f>C35*C$3</f>
-        <v>2.147483648000001E+227</v>
+        <v>3.8654705663999987E+211</v>
       </c>
       <c r="D36" s="13">
         <v>2</v>
@@ -2864,7 +2863,7 @@
       </c>
       <c r="C37" s="20">
         <f t="shared" ref="C37:C41" si="1">C36*C$3</f>
-        <v>4.2949672960000016E+233</v>
+        <v>7.7309411327999971E+217</v>
       </c>
       <c r="D37" s="13">
         <v>2</v>
@@ -2877,7 +2876,7 @@
       <c r="B38" s="27"/>
       <c r="C38" s="20">
         <f t="shared" si="1"/>
-        <v>8.5899345920000027E+239</v>
+        <v>1.5461882265599994E+224</v>
       </c>
       <c r="D38" s="13">
         <v>2</v>
@@ -2890,7 +2889,7 @@
       <c r="B39" s="27"/>
       <c r="C39" s="20">
         <f t="shared" si="1"/>
-        <v>1.7179869184000005E+246</v>
+        <v>3.0923764531199989E+230</v>
       </c>
       <c r="D39" s="13">
         <v>2</v>
@@ -2902,7 +2901,7 @@
       </c>
       <c r="C40" s="20">
         <f t="shared" si="1"/>
-        <v>3.435973836800001E+252</v>
+        <v>6.1847529062399979E+236</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,7 +2910,7 @@
       </c>
       <c r="C41" s="20">
         <f t="shared" si="1"/>
-        <v>6.871947673600002E+258</v>
+        <v>1.2369505812479996E+243</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3610,7 +3609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B607FD-0A38-4A6B-A96A-ADA1BC478DD3}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
